--- a/output_file/June Y=0/example.xlsx
+++ b/output_file/June Y=0/example.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>MetalShape</t>
   </si>
@@ -43,31 +43,28 @@
     <t>Control</t>
   </si>
   <si>
+    <t>LC Steel</t>
+  </si>
+  <si>
+    <t>416 SS</t>
+  </si>
+  <si>
+    <t>304 SS</t>
+  </si>
+  <si>
+    <t>6061 Al</t>
+  </si>
+  <si>
+    <t>Ti Grade 5</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
     <t>Validity_Check_Value_of_Translation_Error</t>
   </si>
   <si>
     <t>Validity_Check_Value_of_Rotation_Error</t>
-  </si>
-  <si>
-    <t>LC Steel</t>
-  </si>
-  <si>
-    <t>416 SS</t>
-  </si>
-  <si>
-    <t>304 SS</t>
-  </si>
-  <si>
-    <t>6061 Al</t>
-  </si>
-  <si>
-    <t>Ti Grade 5</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +402,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>6.5472429285732057E-7</v>
@@ -444,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3.0817675330127061E-6</v>
@@ -458,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2.24420698651469E-6</v>
@@ -472,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>8.1927150390903449E-7</v>
@@ -486,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>3.7109364849822894E-6</v>
@@ -500,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1.2370529894794643E-6</v>
@@ -528,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1.2719871810496809E-6</v>
@@ -542,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2.1611680476168471E-6</v>
@@ -556,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>6.6174859867964468E-7</v>
@@ -570,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>3.3077501856694198E-6</v>
@@ -584,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>2.340384168052887E-7</v>
@@ -598,41 +595,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>3.1594882232792449E-6</v>
       </c>
       <c r="D15">
         <v>3.660722105154054E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>3.1594882232792449E-6</v>
-      </c>
-      <c r="D16">
-        <v>3.660722105154054E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>6.0761042216557332E-6</v>
-      </c>
-      <c r="D17">
-        <v>4.8896242320451615E-5</v>
       </c>
     </row>
   </sheetData>
